--- a/WeldingContest/Protocols/OverallProtocol.xlsx
+++ b/WeldingContest/Protocols/OverallProtocol.xlsx
@@ -14,14 +14,13 @@
     <sheet name="В-1 (111) ЛМС" sheetId="7" r:id="rId8"/>
     <sheet name="В-2 (111)" sheetId="8" r:id="rId9"/>
     <sheet name="В-2 (111) ЛМС" sheetId="9" r:id="rId10"/>
-    <sheet name="Тестовая номинация" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Анализ результатов 18 конкурс сварщиков</t>
   </si>
@@ -146,9 +145,6 @@
     <t>В-2 (111) ЛМС</t>
   </si>
   <si>
-    <t>Тестовая номинация</t>
-  </si>
-  <si>
     <t>Итого</t>
   </si>
   <si>
@@ -366,9 +362,6 @@
   </si>
   <si>
     <t>810</t>
-  </si>
-  <si>
-    <t>НОМИНАЦИЯ Тестовая номинация - 1 (1)</t>
   </si>
 </sst>
 </file>
@@ -525,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:AB15"/>
+  <dimension ref="B2:AB14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1331,155 +1324,72 @@
         <v>41</v>
       </c>
       <c r="C14" s="11">
+        <v>56</v>
+      </c>
+      <c r="D14" s="11">
+        <v>16</v>
+      </c>
+      <c r="E14" s="11">
+        <v>13</v>
+      </c>
+      <c r="F14" s="11">
+        <v>34</v>
+      </c>
+      <c r="G14" s="11">
+        <v>10</v>
+      </c>
+      <c r="H14" s="11">
+        <v>9</v>
+      </c>
+      <c r="I14" s="11">
+        <v>34</v>
+      </c>
+      <c r="J14" s="11">
+        <v>18</v>
+      </c>
+      <c r="K14" s="11">
+        <v>5</v>
+      </c>
+      <c r="L14" s="11">
+        <v>17</v>
+      </c>
+      <c r="M14" s="11">
+        <v>29</v>
+      </c>
+      <c r="N14" s="11">
+        <v>21</v>
+      </c>
+      <c r="O14" s="11">
+        <v>26</v>
+      </c>
+      <c r="P14" s="11">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>24</v>
+      </c>
+      <c r="R14" s="11">
+        <v>5</v>
+      </c>
+      <c r="S14" s="11">
+        <v>14</v>
+      </c>
+      <c r="T14" s="11">
+        <v>10</v>
+      </c>
+      <c r="U14" s="11">
         <v>0</v>
       </c>
-      <c r="D14" s="11">
+      <c r="V14" s="11">
+        <v>1</v>
+      </c>
+      <c r="W14" s="11">
         <v>0</v>
       </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11">
-        <v>0</v>
-      </c>
-      <c r="K14" s="11">
-        <v>0</v>
-      </c>
-      <c r="L14" s="11">
-        <v>0</v>
-      </c>
-      <c r="M14" s="11">
-        <v>0</v>
-      </c>
-      <c r="N14" s="11">
-        <v>0</v>
-      </c>
-      <c r="O14" s="11">
-        <v>0</v>
-      </c>
-      <c r="P14" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="11">
-        <v>0</v>
-      </c>
-      <c r="R14" s="11">
-        <v>0</v>
-      </c>
-      <c r="S14" s="11">
-        <v>0</v>
-      </c>
-      <c r="T14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="U14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="V14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="W14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="X14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="4">
-        <v/>
-      </c>
-      <c r="AB14" s="4">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="11">
-        <v>56</v>
-      </c>
-      <c r="D15" s="11">
-        <v>16</v>
-      </c>
-      <c r="E15" s="11">
-        <v>13</v>
-      </c>
-      <c r="F15" s="11">
-        <v>34</v>
-      </c>
-      <c r="G15" s="11">
-        <v>10</v>
-      </c>
-      <c r="H15" s="11">
-        <v>9</v>
-      </c>
-      <c r="I15" s="11">
-        <v>34</v>
-      </c>
-      <c r="J15" s="11">
-        <v>18</v>
-      </c>
-      <c r="K15" s="11">
-        <v>5</v>
-      </c>
-      <c r="L15" s="11">
-        <v>17</v>
-      </c>
-      <c r="M15" s="11">
-        <v>29</v>
-      </c>
-      <c r="N15" s="11">
-        <v>21</v>
-      </c>
-      <c r="O15" s="11">
-        <v>26</v>
-      </c>
-      <c r="P15" s="11">
-        <v>27</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>24</v>
-      </c>
-      <c r="R15" s="11">
-        <v>5</v>
-      </c>
-      <c r="S15" s="11">
-        <v>14</v>
-      </c>
-      <c r="T15" s="11">
-        <v>10</v>
-      </c>
-      <c r="U15" s="11">
-        <v>0</v>
-      </c>
-      <c r="V15" s="11">
-        <v>1</v>
-      </c>
-      <c r="W15" s="11">
-        <v>0</v>
-      </c>
-      <c r="X15" s="11">
+      <c r="X14" s="11">
         <v>2</v>
       </c>
-      <c r="Y15" s="11">
+      <c r="Y14" s="11">
         <v>7</v>
       </c>
     </row>
@@ -1491,215 +1401,6 @@
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="U4:Y4"/>
     <mergeCell ref="Z4:AB4"/>
-  </mergeCells>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="F1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-    </row>
-    <row r="2">
-      <c r="F2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="R3" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="0">
-        <f>SUM(C5:C4)</f>
-      </c>
-      <c r="D5" s="0">
-        <f>SUM(D5:D4)</f>
-      </c>
-      <c r="E5" s="0">
-        <f>SUM(E5:E4)</f>
-      </c>
-      <c r="F5" s="0">
-        <f>SUM(F5:F4)</f>
-      </c>
-      <c r="G5" s="0">
-        <f>SUM(G5:G4)</f>
-      </c>
-      <c r="H5" s="0">
-        <f>SUM(H5:H4)</f>
-      </c>
-      <c r="I5" s="0">
-        <f>SUM(I5:I4)</f>
-      </c>
-      <c r="J5" s="0">
-        <f>SUM(J5:J4)</f>
-      </c>
-      <c r="K5" s="0">
-        <f>SUM(K5:K4)</f>
-      </c>
-      <c r="L5" s="0">
-        <f>SUM(L5:L4)</f>
-      </c>
-      <c r="M5" s="0">
-        <f>SUM(M5:M4)</f>
-      </c>
-      <c r="N5" s="0">
-        <f>SUM(N5:N4)</f>
-      </c>
-      <c r="P5" s="0">
-        <f>SUM(P5:P4)</f>
-      </c>
-      <c r="Q5" s="0">
-        <f>SUM(Q5:Q4)</f>
-      </c>
-      <c r="R5" s="0">
-        <f>SUM(R5:R4)</f>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="F1:O1"/>
-    <mergeCell ref="F2:O2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:N3"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>
@@ -1715,7 +1416,7 @@
   <sheetData>
     <row r="1">
       <c r="F1" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -1729,7 +1430,7 @@
     </row>
     <row r="2">
       <c r="F2" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -1743,49 +1444,49 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="P3" s="18" t="s">
         <v>5</v>
@@ -1799,10 +1500,10 @@
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>46</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>8</v>
@@ -1841,7 +1542,7 @@
         <v>19</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P4" s="20" t="s">
         <v>17</v>
@@ -1855,13 +1556,13 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="11">
         <v>11</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="11">
         <v>1</v>
@@ -1870,31 +1571,31 @@
         <v>1</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="11">
         <v>1</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O5" s="11">
         <v>20</v>
@@ -1906,12 +1607,12 @@
         <v>1</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="11">
         <v>22</v>
@@ -1923,31 +1624,31 @@
         <v>1</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="11">
         <v>1</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="11">
         <v>1</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L6" s="11">
         <v>1</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N6" s="11">
         <v>1</v>
@@ -1962,18 +1663,18 @@
         <v>1</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="11">
         <v>17</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="11">
         <v>1</v>
@@ -1985,28 +1686,28 @@
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="11">
         <v>1</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L7" s="11">
         <v>1</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O7" s="11">
         <v>8</v>
@@ -2018,12 +1719,12 @@
         <v>1</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="11">
         <v>21</v>
@@ -2038,10 +1739,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="11">
         <v>1</v>
@@ -2050,19 +1751,19 @@
         <v>1</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O8" s="11">
         <v>30</v>
@@ -2074,12 +1775,12 @@
         <v>1</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="11">
         <v>22</v>
@@ -2091,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="11">
         <v>1</v>
@@ -2100,22 +1801,22 @@
         <v>1</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I9" s="11">
         <v>1</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N9" s="11">
         <v>1</v>
@@ -2130,12 +1831,12 @@
         <v>1</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="11">
         <v>50</v>
@@ -2150,25 +1851,25 @@
         <v>1</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="11">
         <v>1</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" s="11">
         <v>1</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M10" s="11">
         <v>1</v>
@@ -2180,18 +1881,18 @@
         <v>30</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="11">
         <v>50</v>
@@ -2209,16 +1910,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="11">
         <v>1</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" s="11">
         <v>1</v>
@@ -2230,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O11" s="11">
         <v>3</v>
@@ -2239,10 +1940,10 @@
         <v>1</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -2317,7 +2018,7 @@
   <sheetData>
     <row r="1">
       <c r="F1" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -2331,7 +2032,7 @@
     </row>
     <row r="2">
       <c r="F2" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -2345,49 +2046,49 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="P3" s="18" t="s">
         <v>5</v>
@@ -2401,10 +2102,10 @@
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>46</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>8</v>
@@ -2443,7 +2144,7 @@
         <v>19</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P4" s="20" t="s">
         <v>17</v>
@@ -2457,7 +2158,7 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="11">
         <v>50</v>
@@ -2475,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="11">
         <v>1</v>
@@ -2490,30 +2191,30 @@
         <v>1</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O5" s="11">
         <v>30</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="11">
         <v>46</v>
@@ -2525,22 +2226,22 @@
         <v>1</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="11">
         <v>1</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="11">
         <v>1</v>
@@ -2552,39 +2253,39 @@
         <v>1</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O6" s="11">
         <v>30</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R6" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="11">
         <v>35</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="11">
         <v>1</v>
@@ -2593,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" s="11">
         <v>1</v>
@@ -2608,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O7" s="11">
         <v>15</v>
@@ -2620,12 +2321,12 @@
         <v>1</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="11">
         <v>50</v>
@@ -2637,10 +2338,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
@@ -2652,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="11">
         <v>1</v>
@@ -2664,30 +2365,30 @@
         <v>1</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O8" s="11">
         <v>30</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="11">
         <v>17</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="11">
         <v>1</v>
@@ -2696,31 +2397,31 @@
         <v>1</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="11">
         <v>1</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L9" s="11">
         <v>1</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O9" s="11">
         <v>25</v>
@@ -2732,51 +2433,51 @@
         <v>1</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="11">
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="11">
         <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="11">
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L10" s="11">
         <v>1</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O10" s="11">
         <v>26</v>
@@ -2788,12 +2489,12 @@
         <v>1</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="11">
         <v>21</v>
@@ -2805,22 +2506,22 @@
         <v>1</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" s="11">
         <v>1</v>
@@ -2829,10 +2530,10 @@
         <v>1</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O11" s="11">
         <v>30</v>
@@ -2844,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -2921,7 +2622,7 @@
   <sheetData>
     <row r="1">
       <c r="F1" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -2935,7 +2636,7 @@
     </row>
     <row r="2">
       <c r="F2" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -2949,49 +2650,49 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="P3" s="18" t="s">
         <v>5</v>
@@ -3005,10 +2706,10 @@
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>46</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>8</v>
@@ -3047,7 +2748,7 @@
         <v>19</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P4" s="20" t="s">
         <v>17</v>
@@ -3061,31 +2762,31 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="11">
         <v>19</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="11">
         <v>1</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="11">
         <v>1</v>
@@ -3097,45 +2798,45 @@
         <v>1</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O5" s="11">
         <v>30</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="11">
         <v>27</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="11">
         <v>1</v>
@@ -3144,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="11">
         <v>1</v>
@@ -3153,7 +2854,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N6" s="11">
         <v>1</v>
@@ -3162,66 +2863,66 @@
         <v>30</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R6" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="11">
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="11">
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="11">
         <v>1</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O7" s="11">
         <v>30</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R7" s="11">
         <v>1</v>
@@ -3229,7 +2930,7 @@
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="11">
         <v>36</v>
@@ -3238,16 +2939,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="11">
         <v>1</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="11">
         <v>1</v>
@@ -3256,36 +2957,36 @@
         <v>1</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="11">
         <v>1</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O8" s="11">
         <v>30</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="11">
         <v>38</v>
@@ -3294,16 +2995,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="11">
         <v>1</v>
@@ -3312,16 +3013,16 @@
         <v>1</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L9" s="11">
         <v>1</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N9" s="11">
         <v>1</v>
@@ -3330,54 +3031,54 @@
         <v>30</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R9" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="11">
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="11">
         <v>1</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N10" s="11">
         <v>1</v>
@@ -3386,7 +3087,7 @@
         <v>30</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="11">
         <v>1</v>
@@ -3397,46 +3098,46 @@
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="11">
         <v>3</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L11" s="11">
         <v>1</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O11" s="11">
         <v>3</v>
@@ -3445,10 +3146,10 @@
         <v>1</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -3526,7 +3227,7 @@
   <sheetData>
     <row r="1">
       <c r="F1" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -3540,7 +3241,7 @@
     </row>
     <row r="2">
       <c r="F2" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -3554,49 +3255,49 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="P3" s="18" t="s">
         <v>5</v>
@@ -3610,10 +3311,10 @@
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>46</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>8</v>
@@ -3652,7 +3353,7 @@
         <v>19</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P4" s="20" t="s">
         <v>17</v>
@@ -3666,25 +3367,25 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="11">
         <v>25</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="11">
         <v>1</v>
@@ -3693,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M5" s="11">
         <v>1</v>
@@ -3711,33 +3412,33 @@
         <v>30</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="11">
         <v>25</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="11">
         <v>1</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="11">
         <v>1</v>
@@ -3749,19 +3450,19 @@
         <v>1</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M6" s="11">
         <v>1</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O6" s="11">
         <v>30</v>
@@ -3778,96 +3479,96 @@
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="11">
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="11">
         <v>1</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O7" s="11">
         <v>0</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="11">
         <v>32</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="11">
         <v>1</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I8" s="11">
         <v>1</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="11">
         <v>1</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="11">
         <v>1</v>
@@ -3882,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R8" s="11">
         <v>1</v>
@@ -3890,16 +3591,16 @@
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="11">
         <v>25</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
@@ -3908,28 +3609,28 @@
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="11">
         <v>1</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9" s="11">
         <v>1</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M9" s="11">
         <v>1</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O9" s="11">
         <v>30</v>
@@ -3946,25 +3647,25 @@
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="11">
         <v>25</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="11">
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="11">
         <v>1</v>
@@ -3973,13 +3674,13 @@
         <v>1</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M10" s="11">
         <v>1</v>
@@ -3997,45 +3698,45 @@
         <v>1</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="11">
         <v>14</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="11">
         <v>1</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M11" s="11">
         <v>1</v>
@@ -4047,13 +3748,13 @@
         <v>30</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R11" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -4129,7 +3830,7 @@
   <sheetData>
     <row r="1">
       <c r="F1" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -4143,7 +3844,7 @@
     </row>
     <row r="2">
       <c r="F2" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -4157,49 +3858,49 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="P3" s="18" t="s">
         <v>5</v>
@@ -4213,10 +3914,10 @@
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>46</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>8</v>
@@ -4255,7 +3956,7 @@
         <v>19</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P4" s="20" t="s">
         <v>17</v>
@@ -4269,43 +3970,43 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="11">
         <v>8</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N5" s="11">
         <v>1</v>
@@ -4320,51 +4021,51 @@
         <v>1</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="11">
         <v>11</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="11">
         <v>1</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" s="11">
         <v>1</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M6" s="11">
         <v>1</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O6" s="11">
         <v>6</v>
@@ -4373,54 +4074,54 @@
         <v>1</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="11">
         <v>9</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L7" s="11">
         <v>1</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O7" s="11">
         <v>11</v>
@@ -4429,48 +4130,48 @@
         <v>1</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="11">
         <v>14</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="11">
         <v>1</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="11">
         <v>1</v>
@@ -4485,30 +4186,30 @@
         <v>1</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="11">
         <v>12</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="11">
         <v>1</v>
@@ -4517,19 +4218,19 @@
         <v>1</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N9" s="11">
         <v>1</v>
@@ -4541,24 +4242,24 @@
         <v>1</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="11">
         <v>17</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
@@ -4567,22 +4268,22 @@
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M10" s="11">
         <v>1</v>
@@ -4597,51 +4298,51 @@
         <v>1</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="11">
         <v>21</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="11">
         <v>1</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L11" s="11">
         <v>1</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N11" s="11">
         <v>1</v>
@@ -4653,10 +4354,10 @@
         <v>1</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -4730,7 +4431,7 @@
   <sheetData>
     <row r="1">
       <c r="F1" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -4744,7 +4445,7 @@
     </row>
     <row r="2">
       <c r="F2" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -4758,49 +4459,49 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="P3" s="18" t="s">
         <v>5</v>
@@ -4814,10 +4515,10 @@
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>46</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>8</v>
@@ -4856,7 +4557,7 @@
         <v>19</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P4" s="20" t="s">
         <v>17</v>
@@ -4870,7 +4571,7 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="11">
         <v>13</v>
@@ -4879,16 +4580,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="11">
         <v>1</v>
@@ -4897,19 +4598,19 @@
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O5" s="11">
         <v>28</v>
@@ -4918,15 +4619,15 @@
         <v>1</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="11">
         <v>33</v>
@@ -4935,16 +4636,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="11">
         <v>1</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="11">
         <v>1</v>
@@ -4953,16 +4654,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L6" s="11">
         <v>1</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N6" s="11">
         <v>1</v>
@@ -4971,18 +4672,18 @@
         <v>30</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R6" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="11">
         <v>11</v>
@@ -4991,54 +4692,54 @@
         <v>1</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="11">
         <v>1</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O7" s="11">
         <v>30</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" s="11">
         <v>30</v>
@@ -5047,28 +4748,28 @@
         <v>1</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="11">
         <v>1</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="11">
         <v>1</v>
@@ -5083,27 +4784,27 @@
         <v>30</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="11">
         <v>15</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
@@ -5112,25 +4813,25 @@
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="11">
         <v>1</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L9" s="11">
         <v>1</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N9" s="11">
         <v>1</v>
@@ -5142,15 +4843,15 @@
         <v>1</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" s="11">
         <v>43</v>
@@ -5159,28 +4860,28 @@
         <v>1</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L10" s="11">
         <v>1</v>
@@ -5189,39 +4890,39 @@
         <v>1</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O10" s="11">
         <v>30</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" s="11">
         <v>44</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="11">
         <v>1</v>
@@ -5233,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" s="11">
         <v>1</v>
@@ -5251,13 +4952,13 @@
         <v>30</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R11" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -5336,7 +5037,7 @@
   <sheetData>
     <row r="1">
       <c r="F1" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -5350,7 +5051,7 @@
     </row>
     <row r="2">
       <c r="F2" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -5364,11 +5065,11 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
@@ -5406,30 +5107,30 @@
         <v>3</v>
       </c>
       <c r="O3" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="P3" s="18" t="s">
-        <v>99</v>
-      </c>
       <c r="Q3" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T3" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>46</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>8</v>
@@ -5468,7 +5169,7 @@
         <v>19</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P4" s="20" t="s">
         <v>24</v>
@@ -5488,123 +5189,123 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="11">
         <v>1</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="11">
         <v>1</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L5" s="11">
         <v>1</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N5" s="11">
         <v>1</v>
       </c>
       <c r="O5" s="11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S5" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T5" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="11">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O6" s="11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T6" s="11">
         <v>1</v>
@@ -5612,61 +5313,61 @@
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="11">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O7" s="11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T7" s="11">
         <v>1</v>
@@ -5674,34 +5375,34 @@
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="11">
         <v>1</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="11">
         <v>1</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="11">
         <v>1</v>
@@ -5710,87 +5411,87 @@
         <v>1</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O8" s="11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R8" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S8" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T8" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="11">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="11">
         <v>1</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O9" s="11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T9" s="11">
         <v>1</v>
@@ -5798,34 +5499,34 @@
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="11">
         <v>1</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" s="11">
         <v>1</v>
@@ -5840,54 +5541,54 @@
         <v>1</v>
       </c>
       <c r="O10" s="11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R10" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S10" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T10" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" s="11">
         <v>1</v>
@@ -5896,28 +5597,28 @@
         <v>1</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N11" s="11">
         <v>1</v>
       </c>
       <c r="O11" s="11">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S11" s="11">
         <v>1</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -6000,7 +5701,7 @@
   <sheetData>
     <row r="1">
       <c r="F1" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -6014,7 +5715,7 @@
     </row>
     <row r="2">
       <c r="F2" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -6028,11 +5729,11 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
@@ -6070,30 +5771,30 @@
         <v>3</v>
       </c>
       <c r="O3" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="P3" s="18" t="s">
-        <v>99</v>
-      </c>
       <c r="Q3" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T3" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>45</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>46</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>8</v>
@@ -6132,7 +5833,7 @@
         <v>19</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P4" s="20" t="s">
         <v>24</v>
@@ -6152,96 +5853,96 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="11">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="11">
         <v>1</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L5" s="11">
         <v>1</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O5" s="11">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S5" s="11">
         <v>1</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="11">
         <v>1</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="11">
         <v>1</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="11">
         <v>1</v>
@@ -6256,81 +5957,81 @@
         <v>1</v>
       </c>
       <c r="O6" s="11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R6" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S6" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T6" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="11">
         <v>1</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O7" s="11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T7" s="11">
         <v>1</v>
@@ -6338,99 +6039,99 @@
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="11">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="11">
         <v>1</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="11">
         <v>1</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N8" s="11">
         <v>1</v>
       </c>
       <c r="O8" s="11">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="11">
         <v>1</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L9" s="11">
         <v>1</v>
@@ -6442,19 +6143,19 @@
         <v>1</v>
       </c>
       <c r="O9" s="11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T9" s="11">
         <v>1</v>
@@ -6462,61 +6163,61 @@
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="11">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O10" s="11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T10" s="11">
         <v>1</v>
@@ -6524,34 +6225,34 @@
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="11">
         <v>1</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" s="11">
         <v>1</v>
@@ -6566,19 +6267,19 @@
         <v>1</v>
       </c>
       <c r="O11" s="11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T11" s="11">
         <v>1</v>

--- a/WeldingContest/Protocols/OverallProtocol.xlsx
+++ b/WeldingContest/Protocols/OverallProtocol.xlsx
@@ -14,13 +14,14 @@
     <sheet name="В-1 (111) ЛМС" sheetId="7" r:id="rId8"/>
     <sheet name="В-2 (111)" sheetId="8" r:id="rId9"/>
     <sheet name="В-2 (111) ЛМС" sheetId="9" r:id="rId10"/>
+    <sheet name="Тестовая номинация" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Анализ результатов 18 конкурс сварщиков</t>
   </si>
@@ -145,6 +146,9 @@
     <t>В-2 (111) ЛМС</t>
   </si>
   <si>
+    <t>Тестовая номинация</t>
+  </si>
+  <si>
     <t>Итого</t>
   </si>
   <si>
@@ -190,6 +194,12 @@
     <t>138</t>
   </si>
   <si>
+    <t>801</t>
+  </si>
+  <si>
+    <t>не варил</t>
+  </si>
+  <si>
     <t>НОМИНАЦИЯ А (135) ЛМС - MIG/MAG (135) (Пластина)</t>
   </si>
   <si>
@@ -343,9 +353,6 @@
     <t>НОМИНАЦИЯ В-2 (111) ЛМС - ММА (111) (Арматура)</t>
   </si>
   <si>
-    <t>801</t>
-  </si>
-  <si>
     <t>803</t>
   </si>
   <si>
@@ -362,6 +369,9 @@
   </si>
   <si>
     <t>810</t>
+  </si>
+  <si>
+    <t>НОМИНАЦИЯ Тестовая номинация - 1 (1)</t>
   </si>
 </sst>
 </file>
@@ -518,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:AB14"/>
+  <dimension ref="B2:AB15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1324,72 +1334,155 @@
         <v>41</v>
       </c>
       <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0</v>
+      </c>
+      <c r="O14" s="11">
+        <v>0</v>
+      </c>
+      <c r="P14" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>0</v>
+      </c>
+      <c r="R14" s="11">
+        <v>0</v>
+      </c>
+      <c r="S14" s="11">
+        <v>0</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="V14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="W14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="X14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <v/>
+      </c>
+      <c r="AB14" s="4">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="11">
         <v>56</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <v>16</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="11">
         <v>13</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F15" s="11">
         <v>34</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G15" s="11">
         <v>10</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H15" s="11">
         <v>9</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I15" s="11">
         <v>34</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J15" s="11">
         <v>18</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K15" s="11">
         <v>5</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L15" s="11">
         <v>17</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M15" s="11">
         <v>29</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N15" s="11">
         <v>21</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O15" s="11">
         <v>26</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P15" s="11">
         <v>27</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q15" s="11">
         <v>24</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R15" s="11">
         <v>5</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S15" s="11">
         <v>14</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T15" s="11">
         <v>10</v>
       </c>
-      <c r="U14" s="11">
+      <c r="U15" s="11">
         <v>0</v>
       </c>
-      <c r="V14" s="11">
-        <v>1</v>
-      </c>
-      <c r="W14" s="11">
+      <c r="V15" s="11">
+        <v>1</v>
+      </c>
+      <c r="W15" s="11">
         <v>0</v>
       </c>
-      <c r="X14" s="11">
+      <c r="X15" s="11">
         <v>2</v>
       </c>
-      <c r="Y14" s="11">
+      <c r="Y15" s="11">
         <v>7</v>
       </c>
     </row>
@@ -1406,9 +1499,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1416,7 +1509,7 @@
   <sheetData>
     <row r="1">
       <c r="F1" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -1430,7 +1523,7 @@
     </row>
     <row r="2">
       <c r="F2" s="12" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -1444,10 +1537,10 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>3</v>
@@ -1486,7 +1579,7 @@
         <v>3</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" s="18" t="s">
         <v>5</v>
@@ -1500,10 +1593,10 @@
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>8</v>
@@ -1542,7 +1635,7 @@
         <v>19</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P4" s="20" t="s">
         <v>17</v>
@@ -1555,442 +1648,50 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="11">
-        <v>11</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="11">
-        <v>1</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="11">
-        <v>20</v>
-      </c>
-      <c r="P5" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>1</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="11">
-        <v>22</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="11">
-        <v>1</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="11">
-        <v>1</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="11">
-        <v>1</v>
-      </c>
-      <c r="O6" s="11">
-        <v>11</v>
-      </c>
-      <c r="P6" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>1</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="11">
-        <v>17</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="11">
-        <v>1</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="11">
-        <v>1</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" s="11">
-        <v>8</v>
-      </c>
-      <c r="P7" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>1</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="11">
-        <v>21</v>
-      </c>
-      <c r="C8" s="11">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="11">
-        <v>1</v>
-      </c>
-      <c r="I8" s="11">
-        <v>1</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8" s="11">
-        <v>30</v>
-      </c>
-      <c r="P8" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>1</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="11">
-        <v>22</v>
-      </c>
-      <c r="C9" s="11">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="11">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="11">
-        <v>1</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N9" s="11">
-        <v>1</v>
-      </c>
-      <c r="O9" s="11">
-        <v>20</v>
-      </c>
-      <c r="P9" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>1</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="11">
-        <v>50</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11">
-        <v>1</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="11">
-        <v>1</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="11">
-        <v>1</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" s="11">
-        <v>1</v>
-      </c>
-      <c r="N10" s="11">
-        <v>1</v>
-      </c>
-      <c r="O10" s="11">
-        <v>30</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="R10" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="11">
-        <v>50</v>
-      </c>
-      <c r="C11" s="11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="11">
-        <v>1</v>
-      </c>
-      <c r="L11" s="11">
-        <v>1</v>
-      </c>
-      <c r="M11" s="11">
-        <v>1</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O11" s="11">
-        <v>3</v>
-      </c>
-      <c r="P11" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="0">
-        <f>SUM(C5:C11)</f>
-      </c>
-      <c r="D12" s="0">
-        <f>SUM(D5:D11)</f>
-      </c>
-      <c r="E12" s="0">
-        <f>SUM(E5:E11)</f>
-      </c>
-      <c r="F12" s="0">
-        <f>SUM(F5:F11)</f>
-      </c>
-      <c r="G12" s="0">
-        <f>SUM(G5:G11)</f>
-      </c>
-      <c r="H12" s="0">
-        <f>SUM(H5:H11)</f>
-      </c>
-      <c r="I12" s="0">
-        <f>SUM(I5:I11)</f>
-      </c>
-      <c r="J12" s="0">
-        <f>SUM(J5:J11)</f>
-      </c>
-      <c r="K12" s="0">
-        <f>SUM(K5:K11)</f>
-      </c>
-      <c r="L12" s="0">
-        <f>SUM(L5:L11)</f>
-      </c>
-      <c r="M12" s="0">
-        <f>SUM(M5:M11)</f>
-      </c>
-      <c r="N12" s="0">
-        <f>SUM(N5:N11)</f>
-      </c>
-      <c r="P12" s="0">
-        <f>SUM(P5:P11)</f>
-      </c>
-      <c r="Q12" s="0">
-        <f>SUM(Q5:Q11)</f>
-      </c>
-      <c r="R12" s="0">
-        <f>SUM(R5:R11)</f>
+      <c r="C5" s="0">
+        <f>SUM(C5:C4)</f>
+      </c>
+      <c r="D5" s="0">
+        <f>SUM(D5:D4)</f>
+      </c>
+      <c r="E5" s="0">
+        <f>SUM(E5:E4)</f>
+      </c>
+      <c r="F5" s="0">
+        <f>SUM(F5:F4)</f>
+      </c>
+      <c r="G5" s="0">
+        <f>SUM(G5:G4)</f>
+      </c>
+      <c r="H5" s="0">
+        <f>SUM(H5:H4)</f>
+      </c>
+      <c r="I5" s="0">
+        <f>SUM(I5:I4)</f>
+      </c>
+      <c r="J5" s="0">
+        <f>SUM(J5:J4)</f>
+      </c>
+      <c r="K5" s="0">
+        <f>SUM(K5:K4)</f>
+      </c>
+      <c r="L5" s="0">
+        <f>SUM(L5:L4)</f>
+      </c>
+      <c r="M5" s="0">
+        <f>SUM(M5:M4)</f>
+      </c>
+      <c r="N5" s="0">
+        <f>SUM(N5:N4)</f>
+      </c>
+      <c r="P5" s="0">
+        <f>SUM(P5:P4)</f>
+      </c>
+      <c r="Q5" s="0">
+        <f>SUM(Q5:Q4)</f>
+      </c>
+      <c r="R5" s="0">
+        <f>SUM(R5:R4)</f>
       </c>
     </row>
   </sheetData>
@@ -2002,7 +1703,666 @@
     <mergeCell ref="C3:N3"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:R3"/>
+  </mergeCells>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:R13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="F1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+    </row>
+    <row r="2">
+      <c r="F2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="11">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="11">
+        <v>20</v>
+      </c>
+      <c r="P5" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>1</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="11">
+        <v>22</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="11">
+        <v>1</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="11">
+        <v>1</v>
+      </c>
+      <c r="O6" s="11">
+        <v>11</v>
+      </c>
+      <c r="P6" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>1</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="11">
+        <v>17</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="11">
+        <v>8</v>
+      </c>
+      <c r="P7" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>1</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="11">
+        <v>21</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="11">
+        <v>30</v>
+      </c>
+      <c r="P8" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>1</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="11">
+        <v>22</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="11">
+        <v>1</v>
+      </c>
+      <c r="O9" s="11">
+        <v>20</v>
+      </c>
+      <c r="P9" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>1</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="11">
+        <v>50</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="11">
+        <v>1</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="11">
+        <v>1</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="11">
+        <v>1</v>
+      </c>
+      <c r="N10" s="11">
+        <v>1</v>
+      </c>
+      <c r="O10" s="11">
+        <v>30</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="R10" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="11">
+        <v>50</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="11">
+        <v>1</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="11">
+        <v>3</v>
+      </c>
+      <c r="P11" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="11">
+        <v>50</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" s="11">
+        <v>30</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="R12" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="0">
+        <f>SUM(C5:C12)</f>
+      </c>
+      <c r="D13" s="0">
+        <f>SUM(D5:D12)</f>
+      </c>
+      <c r="E13" s="0">
+        <f>SUM(E5:E12)</f>
+      </c>
+      <c r="F13" s="0">
+        <f>SUM(F5:F12)</f>
+      </c>
+      <c r="G13" s="0">
+        <f>SUM(G5:G12)</f>
+      </c>
+      <c r="H13" s="0">
+        <f>SUM(H5:H12)</f>
+      </c>
+      <c r="I13" s="0">
+        <f>SUM(I5:I12)</f>
+      </c>
+      <c r="J13" s="0">
+        <f>SUM(J5:J12)</f>
+      </c>
+      <c r="K13" s="0">
+        <f>SUM(K5:K12)</f>
+      </c>
+      <c r="L13" s="0">
+        <f>SUM(L5:L12)</f>
+      </c>
+      <c r="M13" s="0">
+        <f>SUM(M5:M12)</f>
+      </c>
+      <c r="N13" s="0">
+        <f>SUM(N5:N12)</f>
+      </c>
+      <c r="P13" s="0">
+        <f>SUM(P5:P12)</f>
+      </c>
+      <c r="Q13" s="0">
+        <f>SUM(Q5:Q12)</f>
+      </c>
+      <c r="R13" s="0">
+        <f>SUM(R5:R12)</f>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="F1:O1"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="C12:N12"/>
     <mergeCell ref="P10:R10"/>
+    <mergeCell ref="P12:R12"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>
@@ -2018,7 +2378,7 @@
   <sheetData>
     <row r="1">
       <c r="F1" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -2032,7 +2392,7 @@
     </row>
     <row r="2">
       <c r="F2" s="12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -2046,10 +2406,10 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>3</v>
@@ -2088,7 +2448,7 @@
         <v>3</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" s="18" t="s">
         <v>5</v>
@@ -2102,10 +2462,10 @@
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>8</v>
@@ -2144,7 +2504,7 @@
         <v>19</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P4" s="20" t="s">
         <v>17</v>
@@ -2158,7 +2518,7 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B5" s="11">
         <v>50</v>
@@ -2176,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" s="11">
         <v>1</v>
@@ -2191,30 +2551,30 @@
         <v>1</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O5" s="11">
         <v>30</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B6" s="11">
         <v>46</v>
@@ -2226,22 +2586,22 @@
         <v>1</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="11">
         <v>1</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6" s="11">
         <v>1</v>
@@ -2253,39 +2613,39 @@
         <v>1</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O6" s="11">
         <v>30</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R6" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B7" s="11">
         <v>35</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="11">
         <v>1</v>
@@ -2294,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J7" s="11">
         <v>1</v>
@@ -2309,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O7" s="11">
         <v>15</v>
@@ -2321,12 +2681,12 @@
         <v>1</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B8" s="11">
         <v>50</v>
@@ -2338,10 +2698,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
@@ -2353,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="11">
         <v>1</v>
@@ -2365,30 +2725,30 @@
         <v>1</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O8" s="11">
         <v>30</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B9" s="11">
         <v>17</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="11">
         <v>1</v>
@@ -2397,31 +2757,31 @@
         <v>1</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="11">
         <v>1</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="11">
         <v>1</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O9" s="11">
         <v>25</v>
@@ -2433,51 +2793,51 @@
         <v>1</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B10" s="11">
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="11">
         <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" s="11">
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L10" s="11">
         <v>1</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O10" s="11">
         <v>26</v>
@@ -2489,12 +2849,12 @@
         <v>1</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B11" s="11">
         <v>21</v>
@@ -2506,22 +2866,22 @@
         <v>1</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" s="11">
         <v>1</v>
@@ -2530,10 +2890,10 @@
         <v>1</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O11" s="11">
         <v>30</v>
@@ -2545,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
@@ -2622,7 +2982,7 @@
   <sheetData>
     <row r="1">
       <c r="F1" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -2636,7 +2996,7 @@
     </row>
     <row r="2">
       <c r="F2" s="12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -2650,10 +3010,10 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>3</v>
@@ -2692,7 +3052,7 @@
         <v>3</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" s="18" t="s">
         <v>5</v>
@@ -2706,10 +3066,10 @@
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>8</v>
@@ -2748,7 +3108,7 @@
         <v>19</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P4" s="20" t="s">
         <v>17</v>
@@ -2762,31 +3122,31 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B5" s="11">
         <v>19</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="11">
         <v>1</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" s="11">
         <v>1</v>
@@ -2798,45 +3158,45 @@
         <v>1</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O5" s="11">
         <v>30</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B6" s="11">
         <v>27</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" s="11">
         <v>1</v>
@@ -2845,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6" s="11">
         <v>1</v>
@@ -2854,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N6" s="11">
         <v>1</v>
@@ -2863,66 +3223,66 @@
         <v>30</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R6" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B7" s="11">
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F7" s="11">
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" s="11">
         <v>1</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O7" s="11">
         <v>30</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R7" s="11">
         <v>1</v>
@@ -2930,7 +3290,7 @@
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B8" s="11">
         <v>36</v>
@@ -2939,16 +3299,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" s="11">
         <v>1</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="11">
         <v>1</v>
@@ -2957,36 +3317,36 @@
         <v>1</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="11">
         <v>1</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O8" s="11">
         <v>30</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B9" s="11">
         <v>38</v>
@@ -2995,16 +3355,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="11">
         <v>1</v>
@@ -3013,16 +3373,16 @@
         <v>1</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="11">
         <v>1</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N9" s="11">
         <v>1</v>
@@ -3031,54 +3391,54 @@
         <v>30</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R9" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B10" s="11">
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" s="11">
         <v>1</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N10" s="11">
         <v>1</v>
@@ -3087,7 +3447,7 @@
         <v>30</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="11">
         <v>1</v>
@@ -3098,46 +3458,46 @@
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B11" s="11">
         <v>3</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L11" s="11">
         <v>1</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O11" s="11">
         <v>3</v>
@@ -3146,10 +3506,10 @@
         <v>1</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
@@ -3227,7 +3587,7 @@
   <sheetData>
     <row r="1">
       <c r="F1" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -3241,7 +3601,7 @@
     </row>
     <row r="2">
       <c r="F2" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -3255,10 +3615,10 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>3</v>
@@ -3297,7 +3657,7 @@
         <v>3</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" s="18" t="s">
         <v>5</v>
@@ -3311,10 +3671,10 @@
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>8</v>
@@ -3353,7 +3713,7 @@
         <v>19</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P4" s="20" t="s">
         <v>17</v>
@@ -3367,25 +3727,25 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B5" s="11">
         <v>25</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" s="11">
         <v>1</v>
@@ -3394,13 +3754,13 @@
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M5" s="11">
         <v>1</v>
@@ -3412,33 +3772,33 @@
         <v>30</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B6" s="11">
         <v>25</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" s="11">
         <v>1</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="11">
         <v>1</v>
@@ -3450,19 +3810,19 @@
         <v>1</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M6" s="11">
         <v>1</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O6" s="11">
         <v>30</v>
@@ -3479,96 +3839,96 @@
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B7" s="11">
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" s="11">
         <v>1</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O7" s="11">
         <v>0</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B8" s="11">
         <v>32</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" s="11">
         <v>1</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" s="11">
         <v>1</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="11">
         <v>1</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" s="11">
         <v>1</v>
@@ -3583,7 +3943,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R8" s="11">
         <v>1</v>
@@ -3591,16 +3951,16 @@
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B9" s="11">
         <v>25</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
@@ -3609,28 +3969,28 @@
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="11">
         <v>1</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" s="11">
         <v>1</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M9" s="11">
         <v>1</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O9" s="11">
         <v>30</v>
@@ -3647,25 +4007,25 @@
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B10" s="11">
         <v>25</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" s="11">
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" s="11">
         <v>1</v>
@@ -3674,13 +4034,13 @@
         <v>1</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M10" s="11">
         <v>1</v>
@@ -3698,45 +4058,45 @@
         <v>1</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B11" s="11">
         <v>14</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" s="11">
         <v>1</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M11" s="11">
         <v>1</v>
@@ -3748,13 +4108,13 @@
         <v>30</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R11" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -3830,7 +4190,7 @@
   <sheetData>
     <row r="1">
       <c r="F1" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -3844,7 +4204,7 @@
     </row>
     <row r="2">
       <c r="F2" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -3858,10 +4218,10 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>3</v>
@@ -3900,7 +4260,7 @@
         <v>3</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" s="18" t="s">
         <v>5</v>
@@ -3914,10 +4274,10 @@
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>8</v>
@@ -3956,7 +4316,7 @@
         <v>19</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P4" s="20" t="s">
         <v>17</v>
@@ -3970,43 +4330,43 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B5" s="11">
         <v>8</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N5" s="11">
         <v>1</v>
@@ -4021,51 +4381,51 @@
         <v>1</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B6" s="11">
         <v>11</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" s="11">
         <v>1</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" s="11">
         <v>1</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M6" s="11">
         <v>1</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O6" s="11">
         <v>6</v>
@@ -4074,54 +4434,54 @@
         <v>1</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B7" s="11">
         <v>9</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L7" s="11">
         <v>1</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O7" s="11">
         <v>11</v>
@@ -4130,48 +4490,48 @@
         <v>1</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B8" s="11">
         <v>14</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="11">
         <v>1</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" s="11">
         <v>1</v>
@@ -4186,30 +4546,30 @@
         <v>1</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B9" s="11">
         <v>12</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="11">
         <v>1</v>
@@ -4218,19 +4578,19 @@
         <v>1</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N9" s="11">
         <v>1</v>
@@ -4242,24 +4602,24 @@
         <v>1</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B10" s="11">
         <v>17</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
@@ -4268,22 +4628,22 @@
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M10" s="11">
         <v>1</v>
@@ -4298,51 +4658,51 @@
         <v>1</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B11" s="11">
         <v>21</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" s="11">
         <v>1</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L11" s="11">
         <v>1</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N11" s="11">
         <v>1</v>
@@ -4354,10 +4714,10 @@
         <v>1</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
@@ -4431,7 +4791,7 @@
   <sheetData>
     <row r="1">
       <c r="F1" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -4445,7 +4805,7 @@
     </row>
     <row r="2">
       <c r="F2" s="12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -4459,10 +4819,10 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>3</v>
@@ -4501,7 +4861,7 @@
         <v>3</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" s="18" t="s">
         <v>5</v>
@@ -4515,10 +4875,10 @@
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>8</v>
@@ -4557,7 +4917,7 @@
         <v>19</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P4" s="20" t="s">
         <v>17</v>
@@ -4571,7 +4931,7 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B5" s="11">
         <v>13</v>
@@ -4580,16 +4940,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" s="11">
         <v>1</v>
@@ -4598,19 +4958,19 @@
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O5" s="11">
         <v>28</v>
@@ -4619,15 +4979,15 @@
         <v>1</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B6" s="11">
         <v>33</v>
@@ -4636,16 +4996,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" s="11">
         <v>1</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" s="11">
         <v>1</v>
@@ -4654,16 +5014,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L6" s="11">
         <v>1</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N6" s="11">
         <v>1</v>
@@ -4672,18 +5032,18 @@
         <v>30</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R6" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B7" s="11">
         <v>11</v>
@@ -4692,54 +5052,54 @@
         <v>1</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" s="11">
         <v>1</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O7" s="11">
         <v>30</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B8" s="11">
         <v>30</v>
@@ -4748,28 +5108,28 @@
         <v>1</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" s="11">
         <v>1</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L8" s="11">
         <v>1</v>
@@ -4784,27 +5144,27 @@
         <v>30</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B9" s="11">
         <v>15</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
@@ -4813,25 +5173,25 @@
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="11">
         <v>1</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="11">
         <v>1</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N9" s="11">
         <v>1</v>
@@ -4843,15 +5203,15 @@
         <v>1</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B10" s="11">
         <v>43</v>
@@ -4860,28 +5220,28 @@
         <v>1</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L10" s="11">
         <v>1</v>
@@ -4890,39 +5250,39 @@
         <v>1</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O10" s="11">
         <v>30</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B11" s="11">
         <v>44</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="11">
         <v>1</v>
@@ -4934,7 +5294,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" s="11">
         <v>1</v>
@@ -4952,13 +5312,13 @@
         <v>30</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R11" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -5037,7 +5397,7 @@
   <sheetData>
     <row r="1">
       <c r="F1" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -5051,7 +5411,7 @@
     </row>
     <row r="2">
       <c r="F2" s="12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -5065,10 +5425,10 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>3</v>
@@ -5107,30 +5467,30 @@
         <v>3</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T3" s="19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>8</v>
@@ -5169,7 +5529,7 @@
         <v>19</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P4" s="20" t="s">
         <v>24</v>
@@ -5189,43 +5549,43 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B5" s="11">
         <v>30</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="11">
         <v>1</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" s="11">
         <v>1</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L5" s="11">
         <v>1</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N5" s="11">
         <v>1</v>
@@ -5234,78 +5594,78 @@
         <v>30</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S5" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T5" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B6" s="11">
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O6" s="11">
         <v>0</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T6" s="11">
         <v>1</v>
@@ -5313,61 +5673,61 @@
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B7" s="11">
         <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O7" s="11">
         <v>0</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T7" s="11">
         <v>1</v>
@@ -5375,34 +5735,34 @@
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B8" s="11">
         <v>30</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" s="11">
         <v>1</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="11">
         <v>1</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="11">
         <v>1</v>
@@ -5411,87 +5771,87 @@
         <v>1</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O8" s="11">
         <v>30</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R8" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S8" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T8" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B9" s="11">
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="11">
         <v>1</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O9" s="11">
         <v>0</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T9" s="11">
         <v>1</v>
@@ -5499,34 +5859,34 @@
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B10" s="11">
         <v>30</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" s="11">
         <v>1</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10" s="11">
         <v>1</v>
@@ -5544,51 +5904,51 @@
         <v>30</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R10" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S10" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T10" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B11" s="11">
         <v>30</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" s="11">
         <v>1</v>
@@ -5597,7 +5957,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N11" s="11">
         <v>1</v>
@@ -5606,19 +5966,19 @@
         <v>10</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S11" s="11">
         <v>1</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
@@ -5701,7 +6061,7 @@
   <sheetData>
     <row r="1">
       <c r="F1" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -5715,7 +6075,7 @@
     </row>
     <row r="2">
       <c r="F2" s="12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -5729,10 +6089,10 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>3</v>
@@ -5771,30 +6131,30 @@
         <v>3</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="T3" s="19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>8</v>
@@ -5833,7 +6193,7 @@
         <v>19</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P4" s="20" t="s">
         <v>24</v>
@@ -5853,96 +6213,96 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="B5" s="11">
         <v>16</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="11">
         <v>1</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L5" s="11">
         <v>1</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O5" s="11">
         <v>10</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S5" s="11">
         <v>1</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B6" s="11">
         <v>30</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" s="11">
         <v>1</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" s="11">
         <v>1</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6" s="11">
         <v>1</v>
@@ -5960,78 +6320,78 @@
         <v>30</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R6" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S6" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T6" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B7" s="11">
         <v>30</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" s="11">
         <v>1</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O7" s="11">
         <v>0</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T7" s="11">
         <v>1</v>
@@ -6039,43 +6399,43 @@
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B8" s="11">
         <v>23</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" s="11">
         <v>1</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L8" s="11">
         <v>1</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N8" s="11">
         <v>1</v>
@@ -6084,54 +6444,54 @@
         <v>20</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="11">
         <v>1</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B9" s="11">
         <v>30</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="11">
         <v>1</v>
@@ -6146,16 +6506,16 @@
         <v>0</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T9" s="11">
         <v>1</v>
@@ -6163,61 +6523,61 @@
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B10" s="11">
         <v>15</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O10" s="11">
         <v>0</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T10" s="11">
         <v>1</v>
@@ -6225,34 +6585,34 @@
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B11" s="11">
         <v>30</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" s="11">
         <v>1</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" s="11">
         <v>1</v>
@@ -6270,16 +6630,16 @@
         <v>0</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T11" s="11">
         <v>1</v>
